--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.987569333333333</v>
+        <v>0.6881063333333334</v>
       </c>
       <c r="H2">
-        <v>5.962707999999999</v>
+        <v>2.064319</v>
       </c>
       <c r="I2">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="J2">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>105.1628969852209</v>
+        <v>84.83019076696812</v>
       </c>
       <c r="R2">
-        <v>946.4660728669878</v>
+        <v>763.4717169027131</v>
       </c>
       <c r="S2">
-        <v>0.0516679605868599</v>
+        <v>0.02919945883995452</v>
       </c>
       <c r="T2">
-        <v>0.05166796058685991</v>
+        <v>0.02919945883995451</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.987569333333333</v>
+        <v>0.6881063333333334</v>
       </c>
       <c r="H3">
-        <v>5.962707999999999</v>
+        <v>2.064319</v>
       </c>
       <c r="I3">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="J3">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>93.93264263487775</v>
+        <v>32.51994545286944</v>
       </c>
       <c r="R3">
-        <v>845.3937837138998</v>
+        <v>292.679509075825</v>
       </c>
       <c r="S3">
-        <v>0.04615038399104317</v>
+        <v>0.01119371299467096</v>
       </c>
       <c r="T3">
-        <v>0.04615038399104318</v>
+        <v>0.01119371299467096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.987569333333333</v>
+        <v>0.6881063333333334</v>
       </c>
       <c r="H4">
-        <v>5.962707999999999</v>
+        <v>2.064319</v>
       </c>
       <c r="I4">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="J4">
-        <v>0.1241595834663642</v>
+        <v>0.04678220357266529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>53.61390231444177</v>
+        <v>18.56139814524645</v>
       </c>
       <c r="R4">
-        <v>482.5251208299759</v>
+        <v>167.052583307218</v>
       </c>
       <c r="S4">
-        <v>0.02634123888846115</v>
+        <v>0.006389031738039819</v>
       </c>
       <c r="T4">
-        <v>0.02634123888846116</v>
+        <v>0.006389031738039818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>22.444786</v>
       </c>
       <c r="I5">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="J5">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>395.8534809977829</v>
+        <v>922.3358783714025</v>
       </c>
       <c r="R5">
-        <v>3562.681328980046</v>
+        <v>8301.022905342623</v>
       </c>
       <c r="S5">
-        <v>0.1944881953683637</v>
+        <v>0.3174778728377675</v>
       </c>
       <c r="T5">
-        <v>0.1944881953683637</v>
+        <v>0.3174778728377675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>22.444786</v>
       </c>
       <c r="I6">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="J6">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>353.5806318797278</v>
@@ -818,10 +818,10 @@
         <v>3182.22568691755</v>
       </c>
       <c r="S6">
-        <v>0.1737189700546782</v>
+        <v>0.121706234700552</v>
       </c>
       <c r="T6">
-        <v>0.1737189700546782</v>
+        <v>0.121706234700552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>22.444786</v>
       </c>
       <c r="I7">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="J7">
-        <v>0.4673606825542495</v>
+        <v>0.5086503334983149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>201.8130963435658</v>
@@ -880,10 +880,10 @@
         <v>1816.317867092092</v>
       </c>
       <c r="S7">
-        <v>0.0991535171312076</v>
+        <v>0.06946622595999542</v>
       </c>
       <c r="T7">
-        <v>0.09915351713120761</v>
+        <v>0.06946622595999541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>19.617055</v>
       </c>
       <c r="I8">
-        <v>0.4084797339793862</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="J8">
-        <v>0.4084797339793863</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>345.9814456985673</v>
+        <v>806.1343803627761</v>
       </c>
       <c r="R8">
-        <v>3113.833011287105</v>
+        <v>7255.209423264985</v>
       </c>
       <c r="S8">
-        <v>0.1699853866012327</v>
+        <v>0.2774800745590308</v>
       </c>
       <c r="T8">
-        <v>0.1699853866012327</v>
+        <v>0.2774800745590307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>19.617055</v>
       </c>
       <c r="I9">
-        <v>0.4084797339793862</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="J9">
-        <v>0.4084797339793863</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>309.0343878760694</v>
@@ -1004,10 +1004,10 @@
         <v>2781.309490884625</v>
       </c>
       <c r="S9">
-        <v>0.1518327949353571</v>
+        <v>0.1063729411349093</v>
       </c>
       <c r="T9">
-        <v>0.1518327949353572</v>
+        <v>0.1063729411349093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>19.617055</v>
       </c>
       <c r="I10">
-        <v>0.4084797339793862</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="J10">
-        <v>0.4084797339793863</v>
+        <v>0.4445674629290199</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
         <v>176.3874518871345</v>
@@ -1066,10 +1066,10 @@
         <v>1587.48706698421</v>
       </c>
       <c r="S10">
-        <v>0.08666155244279636</v>
+        <v>0.06071444723507981</v>
       </c>
       <c r="T10">
-        <v>0.08666155244279637</v>
+        <v>0.06071444723507979</v>
       </c>
     </row>
   </sheetData>
